--- a/data/plantilla_fraudlytics.xlsx
+++ b/data/plantilla_fraudlytics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,612 +436,234 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>monto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>hora</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>tipo_transaccion</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>canal</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>pais_origen</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>pais_destino</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>tarjeta_tipo</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>cliente_edad</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>cliente_antiguedad_dias</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>transacciones_ultimas_24h</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>monto_promedio_historico</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>distancia_ultima_transaccion_km</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>V13</t>
+          <t>es_horario_inusual</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>V14</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>V15</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>V16</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>V17</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>V18</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>V19</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>V20</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>V21</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>V22</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>V23</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>V24</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>V25</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>V26</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>V27</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>V28</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
+          <t>intentos_fallidos_previos</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>150.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>app_movil</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>visa</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>transferencia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>mastercard</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cajero</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>visa</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
         <v>0</v>
       </c>
     </row>
